--- a/docs/實驗名單.xlsx
+++ b/docs/實驗名單.xlsx
@@ -12,7 +12,8 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Seat" localSheetId="1">randon!$A$1:$B$81</definedName>
+    <definedName name="Seat_1" localSheetId="1">randon!$A$1:$B$41</definedName>
+    <definedName name="Seat_1" localSheetId="0">工作表1!$M$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -28,11 +29,19 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="Seat1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="950" sourceFile="D:\oxygen\Documents\程式\ChatExperimentTool\Random\Seat.txt" tab="0" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="256">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,9 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>C-37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,6 +637,353 @@
   </si>
   <si>
     <t>測試對象IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配座位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-09</t>
+  </si>
+  <si>
+    <t>C-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -667,8 +1016,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +1043,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -705,21 +1080,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="備註" xfId="1" builtinId="10"/>
+    <cellStyle name="壞" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -735,7 +1121,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Seat" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Seat_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Seat_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,19 +1415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,905 +1441,1388 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>54</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" t="s">
+        <v>196</v>
+      </c>
+      <c r="J36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" t="s">
+        <v>234</v>
+      </c>
+      <c r="J42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
+        <v>193</v>
+      </c>
+      <c r="J43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>151</v>
+      </c>
+      <c r="I46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" t="s">
+        <v>229</v>
+      </c>
+      <c r="J47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" t="s">
+        <v>231</v>
+      </c>
+      <c r="J49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" t="s">
+        <v>217</v>
+      </c>
+      <c r="J51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" t="s">
+        <v>216</v>
+      </c>
+      <c r="J54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J55" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" t="s">
+        <v>204</v>
+      </c>
+      <c r="J57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" t="s">
+        <v>219</v>
+      </c>
+      <c r="J60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" t="s">
+        <v>209</v>
+      </c>
+      <c r="J61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" t="s">
+        <v>232</v>
+      </c>
+      <c r="J62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" t="s">
+        <v>244</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>174</v>
+      </c>
+      <c r="J66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" t="s">
+        <v>127</v>
+      </c>
+      <c r="I67" t="s">
+        <v>202</v>
+      </c>
+      <c r="J67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" t="s">
+        <v>246</v>
+      </c>
+      <c r="J68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>182</v>
+      </c>
+      <c r="J69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" t="s">
+        <v>199</v>
+      </c>
+      <c r="J75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I77" t="s">
+        <v>226</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>63</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G78" t="s">
+        <v>137</v>
+      </c>
+      <c r="I78" t="s">
+        <v>211</v>
+      </c>
+      <c r="J78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" t="s">
+        <v>172</v>
+      </c>
+      <c r="J79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G80" t="s">
+        <v>122</v>
+      </c>
+      <c r="I80" t="s">
+        <v>198</v>
+      </c>
+      <c r="J80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s">
+        <v>128</v>
+      </c>
+      <c r="I81" t="s">
+        <v>203</v>
+      </c>
+      <c r="J81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>69</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>70</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>58</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>42</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>20</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>62</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>79</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>74</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>49</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>66</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>80</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>56</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>57</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>26</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>60</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>51</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>77</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>36</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>14</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>25</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>19</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>13</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>53</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>50</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>28</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>43</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>71</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>72</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>22</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>45</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>44</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>76</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>34</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>46</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>55</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>48</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>61</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>64</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>11</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>41</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>24</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>40</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>27</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>169</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:I81">
-    <sortCondition ref="F1"/>
+  <sortState ref="A2:J81">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1972,15 +2846,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1996,7 +2870,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2004,7 +2878,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2028,7 +2902,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2060,7 +2934,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2068,7 +2942,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2092,7 +2966,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2116,7 +2990,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2156,7 +3030,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2180,7 +3054,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2188,7 +3062,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2196,7 +3070,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -2204,7 +3078,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2220,7 +3094,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -2252,7 +3126,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2260,7 +3134,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2284,7 +3158,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -2292,330 +3166,10 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>80</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>56</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>57</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>26</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>77</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>36</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>14</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>25</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>19</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>13</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>53</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>50</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>28</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>43</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>71</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>72</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>22</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>45</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>44</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>12</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>76</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>34</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>46</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>55</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>48</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>61</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>64</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>11</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>41</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>24</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>40</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>27</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
